--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -775,13 +778,16 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -790,17 +796,17 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,17 +843,17 @@
         <v>-100</v>
       </c>
       <c r="G10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,22 +893,23 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,38 +985,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,37 +1097,38 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1114,10 +1140,13 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,26 +1154,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1193,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,26 +1267,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,13 +1302,16 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1281,19 +1320,19 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1721,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1991,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
@@ -2040,8 +2129,8 @@
       <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2069,8 +2161,8 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2084,23 +2176,26 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,13 +2238,16 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2161,42 +2259,45 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2208,31 +2309,34 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2257,11 +2361,11 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>100</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2397,7 @@
         <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -2299,13 +2406,13 @@
         <v>1100</v>
       </c>
       <c r="J48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>1200</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,13 +2444,13 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,7 +2585,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2475,13 +2594,13 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,28 +2673,28 @@
         <v>1500</v>
       </c>
       <c r="E54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
       </c>
       <c r="G54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -2578,13 +2703,16 @@
         <v>600</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2748,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
@@ -2663,16 +2793,19 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2700</v>
       </c>
       <c r="F58" s="3">
         <v>2700</v>
@@ -2681,7 +2814,7 @@
         <v>2700</v>
       </c>
       <c r="H58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="I58" s="3">
         <v>2500</v>
@@ -2693,110 +2826,119 @@
         <v>2500</v>
       </c>
       <c r="L58" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="M58" s="3">
         <v>1300</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3500</v>
       </c>
       <c r="I60" s="3">
         <v>3500</v>
       </c>
       <c r="J60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1400</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2868,8 +3013,8 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,7 +3341,7 @@
         <v>2400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1000</v>
       </c>
       <c r="O76" s="3">
         <v>-1000</v>
       </c>
       <c r="P76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3654,8 +3852,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,37 +4105,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,11 +4188,11 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3980,8 +4200,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -4107,31 +4336,34 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4406,14 +4654,17 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4433,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -763,11 +771,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -781,38 +789,44 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -828,38 +842,44 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>-100</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,28 +920,30 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,44 +1022,50 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,16 +1075,22 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1053,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,43 +1150,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1143,10 +1197,16 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,32 +1214,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1229,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
@@ -1258,41 +1326,47 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-3600</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,40 +1379,46 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
-        <v>-3700</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-900</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2200</v>
       </c>
       <c r="E26" s="3">
-        <v>-3700</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-900</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-900</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,20 +1767,20 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1793,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-900</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-900</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,13 +2225,15 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2080,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2100,22 +2274,28 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
@@ -2132,11 +2312,11 @@
       <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
@@ -2147,22 +2327,28 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2179,14 +2365,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,19 +2433,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2262,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2277,19 +2475,25 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2303,7 +2507,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2312,31 +2516,37 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2364,14 +2574,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -2382,16 +2592,22 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>100</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
@@ -2400,26 +2616,26 @@
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>1100</v>
       </c>
       <c r="K48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2429,16 +2645,22 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2447,16 +2669,16 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2804,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2588,26 +2828,26 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,78 +3009,86 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2700</v>
       </c>
       <c r="H58" s="3">
         <v>2700</v>
       </c>
       <c r="I58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="J58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K58" s="3">
         <v>2500</v>
@@ -2829,22 +3097,28 @@
         <v>2500</v>
       </c>
       <c r="M58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2855,90 +3129,102 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,16 +3270,22 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3016,11 +3308,11 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3344,10 +3680,10 @@
         <v>2400</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1200</v>
       </c>
       <c r="M76" s="3">
         <v>-1300</v>
       </c>
       <c r="N76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-900</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,16 +4222,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3844,22 +4242,22 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,31 +4536,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-600</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4144,7 +4578,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,23 +4633,23 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4330,40 +4790,46 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4625,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4657,19 +5155,25 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4687,16 +5191,16 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -766,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,11 +813,11 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -819,17 +826,17 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,11 +869,11 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
@@ -872,17 +882,17 @@
         <v>-100</v>
       </c>
       <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,31 +935,32 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,47 +1045,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,8 +1115,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1105,22 +1128,22 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,46 +1178,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>3600</v>
-      </c>
       <c r="H17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1203,46 +1230,49 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,16 +1312,17 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1303,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,33 +1380,33 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,23 +1422,26 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
@@ -1409,19 +1449,19 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,23 +1828,23 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,16 +1982,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1939,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,16 +2313,17 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2260,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,14 +2381,14 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -2318,8 +2408,8 @@
       <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3">
+        <v>100</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2371,23 +2464,26 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2466,51 +2565,54 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2522,31 +2624,34 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2580,11 +2685,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>100</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,8 +2717,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>1000</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
@@ -2622,7 +2730,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>1100</v>
@@ -2631,13 +2739,13 @@
         <v>1100</v>
       </c>
       <c r="M48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>1200</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2651,19 +2759,22 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>1100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>100</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2675,13 +2786,13 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2834,7 +2954,7 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2843,13 +2963,13 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,46 +3039,49 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>1500</v>
       </c>
       <c r="H54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I54" s="3">
         <v>1600</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>600</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -2964,13 +3090,16 @@
         <v>600</v>
       </c>
       <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
@@ -3064,25 +3195,28 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2700</v>
       </c>
       <c r="I58" s="3">
         <v>2700</v>
@@ -3091,7 +3225,7 @@
         <v>2700</v>
       </c>
       <c r="K58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L58" s="3">
         <v>2500</v>
@@ -3103,22 +3237,25 @@
         <v>2500</v>
       </c>
       <c r="O58" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="P58" s="3">
         <v>1300</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,105 +3263,111 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3500</v>
       </c>
       <c r="L60" s="3">
         <v>3500</v>
       </c>
       <c r="M60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1400</v>
       </c>
       <c r="S60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3314,8 +3460,8 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,13 +3833,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="E70" s="3">
         <v>2400</v>
@@ -3686,7 +3854,7 @@
         <v>2400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3600</v>
       </c>
       <c r="F76" s="3">
         <v>-3600</v>
       </c>
       <c r="G76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1000</v>
       </c>
       <c r="R76" s="3">
         <v>-1000</v>
       </c>
       <c r="S76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4248,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4259,8 +4458,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4554,34 +4771,34 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,11 +4860,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4796,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -4805,31 +5035,34 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5316,55 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5161,22 +5410,25 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5197,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,103 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -773,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -802,8 +805,11 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,11 +822,11 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -829,17 +835,17 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,11 +881,11 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
@@ -885,17 +894,17 @@
         <v>-100</v>
       </c>
       <c r="K10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,34 +948,35 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,41 +1076,41 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1140,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1131,22 +1153,22 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,49 +1204,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1233,49 +1259,52 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,19 +1345,20 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1340,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,21 +1431,21 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,46 +1461,49 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,55 +1532,58 @@
         <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
       <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,111 +1709,117 @@
         <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,23 +1891,23 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,19 +2051,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2012,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2350,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2384,14 +2473,14 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
@@ -2411,8 +2500,8 @@
       <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
+      <c r="P42" s="3">
+        <v>100</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2467,23 +2559,26 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2553,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2568,34 +2666,37 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2627,31 +2728,34 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2688,11 +2792,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2720,8 +2827,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>1000</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
@@ -2733,7 +2840,7 @@
         <v>1000</v>
       </c>
       <c r="K48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
@@ -2742,13 +2849,13 @@
         <v>1100</v>
       </c>
       <c r="N48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>1200</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2762,22 +2869,25 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>1100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2789,13 +2899,13 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,11 +3060,11 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2957,7 +3076,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2966,13 +3085,13 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,40 +3176,40 @@
         <v>1100</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>1500</v>
       </c>
       <c r="I54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1600</v>
       </c>
       <c r="K54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
       </c>
       <c r="Q54" s="3">
         <v>600</v>
@@ -3093,13 +3218,16 @@
         <v>600</v>
       </c>
       <c r="S54" s="3">
+        <v>600</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
@@ -3198,28 +3328,31 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2700</v>
       </c>
       <c r="J58" s="3">
         <v>2700</v>
@@ -3228,7 +3361,7 @@
         <v>2700</v>
       </c>
       <c r="L58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M58" s="3">
         <v>2500</v>
@@ -3240,134 +3373,143 @@
         <v>2500</v>
       </c>
       <c r="P58" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="Q58" s="3">
         <v>1300</v>
       </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3500</v>
       </c>
       <c r="M60" s="3">
         <v>3500</v>
       </c>
       <c r="N60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1400</v>
       </c>
       <c r="T60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3437,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3463,8 +3608,8 @@
       <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1400</v>
       </c>
       <c r="T66" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3845,7 +4012,7 @@
         <v>1900</v>
       </c>
       <c r="E70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="F70" s="3">
         <v>2400</v>
@@ -3857,7 +4024,7 @@
         <v>2400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-3600</v>
       </c>
       <c r="G76" s="3">
         <v>-3600</v>
       </c>
       <c r="H76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1000</v>
       </c>
       <c r="S76" s="3">
         <v>-1000</v>
       </c>
       <c r="T76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4437,8 +4635,8 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4447,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4461,8 +4659,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4972,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4774,34 +4990,34 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,37 +5056,38 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4875,8 +5095,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,7 +5243,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5038,31 +5267,34 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5375,13 +5623,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5413,14 +5661,17 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5452,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -766,8 +774,8 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -779,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -790,11 +798,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
@@ -808,8 +816,14 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,33 +839,33 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,33 +904,33 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
       <c r="N10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,29 +988,29 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,56 +1101,62 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,8 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,11 +1189,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1156,25 +1202,25 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,46 +1268,46 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1262,55 +1316,61 @@
         <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1323,8 +1383,14 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,16 +1412,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1363,8 +1431,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1376,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
@@ -1405,8 +1473,14 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1434,24 +1508,24 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1464,8 +1538,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,16 +1553,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1494,22 +1574,22 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1523,8 +1603,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,58 +1618,64 @@
         <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-900</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1798,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,58 +1813,64 @@
         <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-900</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,58 +1878,64 @@
         <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-900</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1895,25 +2017,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,16 +2188,22 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2071,8 +2211,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2084,22 +2224,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
@@ -2113,8 +2253,14 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,58 +2268,64 @@
         <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-900</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,122 +2398,134 @@
         <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-900</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,25 +2572,27 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2439,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2459,22 +2633,28 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2483,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
@@ -2503,11 +2683,11 @@
       <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
+      <c r="Q42" s="3">
+        <v>100</v>
+      </c>
+      <c r="R42" s="3">
+        <v>100</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2562,14 +2748,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2654,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2669,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2684,30 +2882,36 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2722,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2731,31 +2935,37 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2795,14 +3005,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
@@ -2813,8 +3023,14 @@
       <c r="U47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2830,11 +3046,11 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -2843,26 +3059,26 @@
         <v>1000</v>
       </c>
       <c r="L48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>1100</v>
       </c>
       <c r="O48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2883,17 +3105,17 @@
       <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
+      <c r="F49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2902,16 +3124,16 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>300</v>
+      </c>
+      <c r="W49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,28 +3283,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -3079,26 +3319,26 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,102 +3532,110 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2700</v>
       </c>
       <c r="L58" s="3">
         <v>2700</v>
       </c>
       <c r="M58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="O58" s="3">
         <v>2500</v>
@@ -3376,36 +3644,42 @@
         <v>2500</v>
       </c>
       <c r="Q58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
@@ -3414,102 +3688,114 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,16 +3853,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3585,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3611,11 +3903,11 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>900</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,22 +4333,28 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>1900</v>
       </c>
       <c r="F70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="G70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="H70" s="3">
         <v>2400</v>
@@ -4027,10 +4363,10 @@
         <v>2400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q76" s="3">
         <v>-1300</v>
       </c>
       <c r="R76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,58 +4938,64 @@
         <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-900</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4638,14 +5036,14 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4657,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,43 +5403,49 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-600</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -5023,7 +5457,7 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -5034,8 +5468,14 @@
       <c r="U89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5083,8 +5525,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5092,17 +5534,17 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,23 +5688,29 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5258,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -5270,31 +5730,37 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5626,16 +6124,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5664,31 +6162,37 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5706,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5727,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,14 +775,14 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -793,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -822,8 +826,11 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,11 +852,11 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -858,17 +865,17 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,11 +920,11 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
@@ -923,17 +933,17 @@
         <v>-100</v>
       </c>
       <c r="N10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,26 +1008,26 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,59 +1124,62 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,8 +1218,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1208,22 +1231,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,58 +1285,59 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1322,10 +1349,13 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1338,42 +1368,42 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1428,14 +1462,14 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1450,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1514,21 +1551,21 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,40 +1599,40 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
       </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2023,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-200</v>
       </c>
       <c r="L29" s="3">
         <v>-200</v>
       </c>
       <c r="M29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2208,14 +2278,14 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2230,19 +2300,19 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,28 +2660,29 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2619,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2669,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>100</v>
@@ -2689,8 +2779,8 @@
       <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
+      <c r="S42" s="3">
+        <v>100</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2754,23 +2847,26 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2858,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2873,63 +2972,66 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -2941,31 +3043,34 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3011,11 +3116,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
-        <v>100</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3052,8 +3160,8 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>1000</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
@@ -3065,7 +3173,7 @@
         <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>1100</v>
@@ -3074,13 +3182,13 @@
         <v>1100</v>
       </c>
       <c r="Q48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>1200</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
         <v>1100</v>
@@ -3111,14 +3222,14 @@
       <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>1100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>100</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -3130,13 +3241,13 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,8 +3420,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3309,11 +3429,11 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -3325,7 +3445,7 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3334,13 +3454,13 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,49 +3554,49 @@
         <v>1300</v>
       </c>
       <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1100</v>
       </c>
       <c r="G54" s="3">
         <v>1100</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>1500</v>
       </c>
       <c r="L54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M54" s="3">
         <v>1600</v>
       </c>
       <c r="N54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>600</v>
       </c>
       <c r="T54" s="3">
         <v>600</v>
@@ -3479,13 +3605,16 @@
         <v>600</v>
       </c>
       <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,53 +3674,53 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
@@ -3599,37 +3730,40 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2700</v>
       </c>
       <c r="M58" s="3">
         <v>2700</v>
@@ -3638,7 +3772,7 @@
         <v>2700</v>
       </c>
       <c r="O58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="P58" s="3">
         <v>2500</v>
@@ -3650,22 +3784,25 @@
         <v>2500</v>
       </c>
       <c r="S58" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="T58" s="3">
         <v>1300</v>
       </c>
       <c r="U58" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="V58" s="3">
         <v>1000</v>
       </c>
       <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,129 +3810,135 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3500</v>
       </c>
       <c r="P60" s="3">
         <v>3500</v>
       </c>
       <c r="Q60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1400</v>
       </c>
       <c r="W60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3870,8 +4016,8 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3883,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3909,8 +4055,8 @@
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1400</v>
       </c>
       <c r="W66" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4348,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>1900</v>
@@ -4357,7 +4525,7 @@
         <v>1900</v>
       </c>
       <c r="H70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="I70" s="3">
         <v>2400</v>
@@ -4369,7 +4537,7 @@
         <v>2400</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-2300</v>
       </c>
       <c r="G76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3600</v>
       </c>
       <c r="J76" s="3">
         <v>-3600</v>
       </c>
       <c r="K76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1000</v>
       </c>
       <c r="V76" s="3">
         <v>-1000</v>
       </c>
       <c r="W76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5042,23 +5241,23 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5421,10 +5638,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5433,34 +5650,34 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5531,14 +5752,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,25 +5921,28 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>-100</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5724,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -5736,31 +5966,34 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6130,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6168,34 +6417,37 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6216,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,135 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -790,8 +801,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -800,25 +811,25 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
@@ -829,8 +840,17 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,36 +875,36 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,8 +917,17 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,36 +952,36 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-300</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +994,17 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1029,11 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1011,8 +1052,8 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -1032,11 +1073,11 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1059,8 +1100,17 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,19 +1177,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1147,56 +1206,65 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,23 +1289,23 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1245,17 +1313,17 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1263,8 +1331,17 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,133 +1363,145 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-1800</v>
+        <v>-3500</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1422,8 +1511,17 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,28 +1546,31 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1477,8 +1578,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1487,25 +1588,25 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
@@ -1516,8 +1617,17 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1554,27 +1664,27 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1694,17 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,13 +1715,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1617,31 +1736,31 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,76 +1771,94 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1925,17 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +2002,171 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
       <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,16 +2233,25 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2087,28 +2269,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="O29" s="3">
+        <v>-200</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2128,8 +2310,17 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,28 +2464,37 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2293,8 +2502,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2303,25 +2512,25 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
@@ -2332,76 +2541,94 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2695,176 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,26 +2918,29 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
@@ -2691,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2709,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2718,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2729,8 +2989,17 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2762,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>100</v>
@@ -2782,14 +3051,14 @@
       <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
+      <c r="T42" s="3">
+        <v>100</v>
+      </c>
+      <c r="U42" s="3">
+        <v>100</v>
+      </c>
+      <c r="V42" s="3">
+        <v>100</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
@@ -2797,8 +3066,17 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,11 +3128,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2862,11 +3140,20 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3220,17 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2960,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2969,25 +3265,25 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
@@ -2996,31 +3292,40 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
@@ -3028,49 +3333,58 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3119,17 +3433,17 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
-      </c>
-      <c r="V47" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>100</v>
@@ -3137,76 +3451,94 @@
       <c r="X47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1000</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
       </c>
       <c r="O48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>1200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,49 +3546,49 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1100</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
+        <v>1100</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>300</v>
-      </c>
-      <c r="S49" s="3">
-        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
@@ -3273,8 +3605,17 @@
       <c r="X49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3759,28 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3432,53 +3791,62 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3913,94 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
       </c>
       <c r="G54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>1500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1600</v>
       </c>
       <c r="O54" s="3">
         <v>1500</v>
       </c>
       <c r="P54" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="Q54" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="R54" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="S54" s="3">
         <v>2000</v>
       </c>
       <c r="T54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,280 +4054,319 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2500</v>
       </c>
       <c r="S58" s="3">
         <v>2500</v>
       </c>
       <c r="T58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
+        <v>500</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
       </c>
       <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,19 +4433,28 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4032,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4058,14 +4495,14 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
+        <v>100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4510,17 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4741,94 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4519,34 +5022,34 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>1900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="J70" s="3">
         <v>1900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="K70" s="3">
         <v>1900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K70" s="3">
-        <v>2400</v>
       </c>
       <c r="L70" s="3">
         <v>2400</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +5155,94 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-17800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-17300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-16700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-12200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-7600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-5000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-4400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-4100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-3200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-2000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-1900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5463,94 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5617,176 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,64 +5811,67 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
@@ -5286,8 +5882,17 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,13 +6267,22 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -5641,7 +6291,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5650,43 +6300,43 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -5694,8 +6344,17 @@
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6379,11 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5755,29 +6417,29 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6450,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,67 +6604,76 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6681,17 @@
       <c r="X94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6716,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6787,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +7018,17 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,37 +7036,37 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>700</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
@@ -6338,10 +7075,10 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>700</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>1000</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6350,16 +7087,25 @@
         <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6382,19 +7128,19 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6420,31 +7166,40 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
@@ -6456,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6471,19 +7226,19 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6492,6 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,11 +805,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -820,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,11 +891,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -897,17 +904,17 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,11 +971,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
@@ -974,17 +984,17 @@
         <v>-100</v>
       </c>
       <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,26 +1075,26 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1217,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1206,51 +1226,51 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1311,22 +1334,22 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,61 +1402,61 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1441,10 +1468,13 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,59 +1482,59 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1578,11 +1612,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1597,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1673,21 +1710,21 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,10 +1755,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1730,40 +1770,40 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2278,22 +2339,22 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-200</v>
       </c>
       <c r="P29" s="3">
         <v>-200</v>
       </c>
       <c r="Q29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2502,11 +2572,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2521,19 +2591,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2936,25 +3023,25 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2978,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3040,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <v>100</v>
@@ -3060,8 +3150,8 @@
       <c r="V42" s="3">
         <v>100</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
+      <c r="W42" s="3">
+        <v>100</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3137,23 +3230,26 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3265,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3280,34 +3379,37 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3321,34 +3423,34 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -3360,31 +3462,34 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3442,11 +3547,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3">
-        <v>100</v>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
         <v>100</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3486,8 +3594,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3495,8 +3603,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>1000</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>1000</v>
@@ -3508,7 +3616,7 @@
         <v>1000</v>
       </c>
       <c r="R48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S48" s="3">
         <v>1100</v>
@@ -3517,13 +3625,13 @@
         <v>1100</v>
       </c>
       <c r="U48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V48" s="3">
         <v>1200</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>1200</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3555,7 +3666,7 @@
         <v>1200</v>
       </c>
       <c r="H49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
@@ -3566,14 +3677,14 @@
       <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>1100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>100</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3585,13 +3696,13 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3800,11 +3920,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -3816,7 +3936,7 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3825,13 +3945,13 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V52" s="3">
         <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3937,55 +4063,55 @@
         <v>1200</v>
       </c>
       <c r="G54" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H54" s="3">
         <v>1300</v>
       </c>
       <c r="I54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
       </c>
       <c r="K54" s="3">
         <v>1100</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>1500</v>
       </c>
       <c r="P54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1600</v>
       </c>
       <c r="R54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
-      </c>
-      <c r="W54" s="3">
-        <v>600</v>
       </c>
       <c r="X54" s="3">
         <v>600</v>
@@ -3994,13 +4120,16 @@
         <v>600</v>
       </c>
       <c r="Z54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,13 +4187,14 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -4072,59 +4203,59 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,7 +4277,7 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -4152,31 +4286,31 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2700</v>
       </c>
       <c r="Q58" s="3">
         <v>2700</v>
@@ -4185,7 +4319,7 @@
         <v>2700</v>
       </c>
       <c r="S58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="T58" s="3">
         <v>2500</v>
@@ -4197,22 +4331,25 @@
         <v>2500</v>
       </c>
       <c r="W58" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="X58" s="3">
         <v>1300</v>
       </c>
       <c r="Y58" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Z58" s="3">
         <v>1000</v>
       </c>
       <c r="AA58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4357,7 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -4232,64 +4369,67 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>500</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,76 +4437,79 @@
         <v>1900</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="F60" s="3">
         <v>1500</v>
       </c>
       <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3500</v>
       </c>
       <c r="T60" s="3">
         <v>3500</v>
       </c>
       <c r="U60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1400</v>
       </c>
       <c r="AA60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4478,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4504,8 +4650,8 @@
       <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="W62" s="3">
+        <v>100</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,76 +4917,79 @@
         <v>1900</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="F66" s="3">
         <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1400</v>
       </c>
       <c r="AA66" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5031,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>1900</v>
@@ -5040,7 +5208,7 @@
         <v>1900</v>
       </c>
       <c r="L70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="M70" s="3">
         <v>2400</v>
@@ -5052,7 +5220,7 @@
         <v>2400</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,76 +5667,79 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-2300</v>
       </c>
       <c r="K76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3600</v>
       </c>
       <c r="N76" s="3">
         <v>-3600</v>
       </c>
       <c r="O76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Z76" s="3">
         <v>-1000</v>
       </c>
       <c r="AA76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5840,8 +6039,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -5849,23 +6048,23 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6300,10 +6517,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6312,34 +6529,34 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6426,14 +6647,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6630,20 +6860,20 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>-100</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6655,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -6667,31 +6897,34 @@
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,67 +7291,70 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7137,13 +7386,13 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -7175,14 +7424,17 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7193,28 +7445,28 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7235,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,14 +815,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -827,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -838,11 +845,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,33 +907,33 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,33 +993,33 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-100</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>-100</v>
       </c>
       <c r="S10" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
       </c>
       <c r="U10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,29 +1105,29 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,77 +1239,83 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>1000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,31 +1325,37 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1324,11 +1369,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1337,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,67 +1455,67 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
@@ -1471,10 +1524,16 @@
         <v>200</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,65 +1541,65 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-700</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,14 +1659,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1615,14 +1682,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1634,22 +1701,22 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1713,24 +1786,24 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,28 +1816,34 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1773,16 +1852,16 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1794,22 +1873,22 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-800</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-200</v>
       </c>
       <c r="Y23" s="3">
         <v>-900</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA23" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-800</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-900</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA26" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-800</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
       </c>
       <c r="L27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-900</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA27" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,11 +2438,11 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2342,25 +2463,25 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,14 +2691,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2575,14 +2714,14 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2594,22 +2733,22 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-800</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
       </c>
       <c r="L33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-900</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA33" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-800</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
       </c>
       <c r="L35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-900</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA35" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3026,28 +3199,28 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3068,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3133,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <v>100</v>
@@ -3153,11 +3332,11 @@
       <c r="W42" s="3">
         <v>100</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>4</v>
+      <c r="X42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>100</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>4</v>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3233,14 +3418,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,13 +3519,19 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3367,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3382,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3397,24 +3594,30 @@
         <v>200</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3426,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -3456,7 +3659,7 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3465,31 +3668,37 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3550,14 +3759,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z47" s="3">
         <v>100</v>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3597,20 +3812,20 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1000</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>1000</v>
@@ -3619,26 +3834,26 @@
         <v>1000</v>
       </c>
       <c r="S48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="U48" s="3">
         <v>1100</v>
       </c>
       <c r="V48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X48" s="3">
         <v>1200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1200</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,7 +3878,7 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
@@ -3669,10 +3890,10 @@
         <v>1200</v>
       </c>
       <c r="I49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1100</v>
@@ -3680,17 +3901,17 @@
       <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
+      <c r="M49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3699,16 +3920,16 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3923,14 +4162,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
@@ -3939,26 +4178,26 @@
         <v>400</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,16 +4293,22 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
@@ -4066,70 +4317,76 @@
         <v>1200</v>
       </c>
       <c r="H54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2000</v>
-      </c>
-      <c r="X54" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>600</v>
       </c>
       <c r="Z54" s="3">
         <v>600</v>
       </c>
       <c r="AA54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,144 +4447,152 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>700</v>
       </c>
       <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
+        <v>700</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>100</v>
-      </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2700</v>
       </c>
       <c r="S58" s="3">
         <v>2700</v>
       </c>
       <c r="T58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="U58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="V58" s="3">
         <v>2500</v>
@@ -4334,36 +4601,42 @@
         <v>2500</v>
       </c>
       <c r="X58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -4372,19 +4645,19 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
@@ -4393,123 +4666,135 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>400</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
       <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4627,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4653,11 +4944,11 @@
       <c r="W62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>100</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>1100</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5202,19 +5537,19 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>1900</v>
       </c>
       <c r="M70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="N70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="O70" s="3">
         <v>2400</v>
@@ -5223,10 +5558,10 @@
         <v>2400</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-16700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1200</v>
       </c>
       <c r="X76" s="3">
         <v>-1300</v>
       </c>
       <c r="Y76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-800</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
       </c>
       <c r="L81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-900</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA81" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6042,23 +6439,23 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6070,16 +6467,16 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,22 +6920,28 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -6520,37 +6953,37 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-600</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -6562,7 +6995,7 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6627,14 +7068,14 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6650,8 +7091,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6659,17 +7100,17 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6863,24 +7322,24 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6888,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
@@ -6900,31 +7359,37 @@
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-900</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
       </c>
       <c r="AB94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7758,19 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7294,67 +7785,73 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7389,16 +7886,16 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -7427,14 +7924,20 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7448,31 +7951,31 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7490,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>MAGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,11 +825,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -840,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -913,11 +920,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -926,17 +933,17 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,11 +1009,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>-100</v>
@@ -1012,17 +1022,17 @@
         <v>-100</v>
       </c>
       <c r="U10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1111,26 +1125,26 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,28 +1262,31 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1274,51 +1294,51 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1380,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1375,8 +1398,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1388,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,79 +1472,80 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
@@ -1530,10 +1557,13 @@
         <v>200</v>
       </c>
       <c r="AD17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,68 +1571,68 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,17 +1693,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1688,11 +1722,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1707,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1792,21 +1829,21 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1843,10 +1883,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1858,40 +1898,40 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
-        <v>100</v>
-      </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,85 +1960,88 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2175,85 +2227,88 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2261,85 +2316,88 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2444,8 +2505,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2469,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-200</v>
       </c>
       <c r="S29" s="3">
         <v>-200</v>
       </c>
       <c r="T29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,17 +2761,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2720,11 +2790,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2739,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,85 +2850,88 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2949,176 +3028,182 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3205,25 +3292,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -3247,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3318,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>100</v>
@@ -3338,8 +3428,8 @@
       <c r="Y42" s="3">
         <v>100</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>4</v>
+      <c r="Z42" s="3">
+        <v>100</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>4</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3424,23 +3517,26 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,16 +3621,19 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3570,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3585,42 +3684,45 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
       <c r="Z45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3635,34 +3737,34 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
@@ -3674,31 +3776,34 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>200</v>
       </c>
       <c r="AA46" s="3">
         <v>200</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3765,11 +3870,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>100</v>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>100</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3818,8 +3926,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3827,8 +3935,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>1000</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>1000</v>
@@ -3840,7 +3948,7 @@
         <v>1000</v>
       </c>
       <c r="U48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V48" s="3">
         <v>1100</v>
@@ -3849,13 +3957,13 @@
         <v>1100</v>
       </c>
       <c r="X48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Y48" s="3">
         <v>1200</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>1200</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
@@ -3869,19 +3977,22 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
@@ -3896,7 +4007,7 @@
         <v>1200</v>
       </c>
       <c r="K49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1100</v>
@@ -3907,14 +4018,14 @@
       <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>1100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>100</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3926,13 +4037,13 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>400</v>
-      </c>
-      <c r="W49" s="3">
-        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4168,11 +4288,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
@@ -4184,7 +4304,7 @@
         <v>400</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -4193,13 +4313,13 @@
         <v>300</v>
       </c>
       <c r="X52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y52" s="3">
         <v>200</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,10 +4434,10 @@
         <v>1300</v>
       </c>
       <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1200</v>
       </c>
       <c r="G54" s="3">
         <v>1200</v>
@@ -4323,55 +4449,55 @@
         <v>1200</v>
       </c>
       <c r="J54" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K54" s="3">
         <v>1300</v>
       </c>
       <c r="L54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>1500</v>
       </c>
       <c r="S54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T54" s="3">
         <v>1600</v>
       </c>
       <c r="U54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>600</v>
       </c>
       <c r="AA54" s="3">
         <v>600</v>
@@ -4380,13 +4506,16 @@
         <v>600</v>
       </c>
       <c r="AC54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD54" s="3">
         <v>400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4461,10 +4592,10 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -4473,59 +4604,59 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
@@ -4535,16 +4666,19 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -4553,7 +4687,7 @@
         <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -4562,31 +4696,31 @@
         <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2700</v>
       </c>
       <c r="T58" s="3">
         <v>2700</v>
@@ -4595,7 +4729,7 @@
         <v>2700</v>
       </c>
       <c r="V58" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="W58" s="3">
         <v>2500</v>
@@ -4607,22 +4741,25 @@
         <v>2500</v>
       </c>
       <c r="Z58" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="AA58" s="3">
         <v>1300</v>
       </c>
       <c r="AB58" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="AC58" s="3">
         <v>1000</v>
       </c>
       <c r="AD58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4633,13 +4770,13 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -4651,64 +4788,67 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
       </c>
       <c r="N59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
       <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,85 +4856,88 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>1900</v>
       </c>
       <c r="H60" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="I60" s="3">
         <v>1500</v>
       </c>
       <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>3500</v>
       </c>
       <c r="W60" s="3">
         <v>3500</v>
       </c>
       <c r="X60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y60" s="3">
         <v>3300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1600</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>1400</v>
       </c>
       <c r="AD60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4924,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4950,8 +5096,8 @@
       <c r="Y62" s="3">
         <v>100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>100</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,85 +5390,88 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1900</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
       </c>
       <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>1400</v>
       </c>
       <c r="AD66" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5543,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>1900</v>
@@ -5552,7 +5720,7 @@
         <v>1900</v>
       </c>
       <c r="O70" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="P70" s="3">
         <v>2400</v>
@@ -5564,7 +5732,7 @@
         <v>2400</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5694,85 +5868,88 @@
         <v>-19600</v>
       </c>
       <c r="E72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6038,85 +6224,88 @@
         <v>-300</v>
       </c>
       <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
       </c>
       <c r="J76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-2300</v>
       </c>
       <c r="N76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-3600</v>
       </c>
       <c r="Q76" s="3">
         <v>-3600</v>
       </c>
       <c r="R76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1400</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-1000</v>
       </c>
       <c r="AC76" s="3">
         <v>-1000</v>
       </c>
       <c r="AD76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6301,85 +6496,88 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6445,8 +6644,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -6454,23 +6653,23 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -6478,8 +6677,8 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,17 +7140,20 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6944,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -6959,10 +7176,10 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6971,34 +7188,34 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,13 +7264,14 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -7074,11 +7295,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -7097,14 +7318,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -7112,8 +7333,8 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,13 +7529,16 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7328,20 +7558,20 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>-100</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -7353,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -7365,31 +7595,34 @@
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-900</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB94" s="3">
         <v>-100</v>
       </c>
       <c r="AC94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,16 +8007,19 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -7791,67 +8037,70 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>200</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7892,13 +8141,13 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -7930,14 +8179,17 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>4</v>
+      <c r="AC101" s="3">
+        <v>0</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7957,28 +8209,28 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -7999,13 +8251,13 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>
